--- a/data/trans_camb/P31_2_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P31_2_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,15 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +547,27 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +657,15 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>-6,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4,93</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,39</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4,3</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-3,31</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,98</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-1,2</t>
         </is>
       </c>
     </row>
@@ -639,32 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 3,9</t>
+          <t>-3,7; 3,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 7,43</t>
+          <t>-0,27; 7,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 6,2</t>
+          <t>-11,29; -1,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 8,36</t>
+          <t>1,2; 11,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 4,34</t>
+          <t>-7,53; -0,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,9</t>
+          <t>-0,67; 6,47</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1,58; 7,94</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-4,34; 3,74</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1,11; 8,51</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 4,85</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 4,18</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 6,83</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-6,26; -0,15</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,91; 8,05</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 1,18</t>
         </is>
       </c>
     </row>
@@ -677,32 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,01%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>-7,73%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>-4,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>3,3%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5,77%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-0,19%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,46%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1,79%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5,0%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-3,84%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>6,01%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-1,35%</t>
         </is>
       </c>
     </row>
@@ -715,32 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 4,61</t>
+          <t>-4,11; 4,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 8,9</t>
+          <t>-0,33; 8,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 7,45</t>
+          <t>-12,78; -2,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 9,99</t>
+          <t>1,44; 14,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 5,11</t>
+          <t>-8,24; -0,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 8,14</t>
+          <t>-0,77; 7,79</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1,85; 9,61</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 4,57</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1,29; 10,49</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-1,79; 5,64</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 4,92</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1,61; 8,02</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-7,22; -0,18</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 9,98</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-4,21; 1,31</t>
         </is>
       </c>
     </row>
@@ -757,32 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3,98</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-3,61</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-2,25</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,05</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
         </is>
       </c>
     </row>
@@ -795,32 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 4,75</t>
+          <t>-2,13; 5,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 4,78</t>
+          <t>-4,01; 5,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 5,91</t>
+          <t>-11,91; -0,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 7,49</t>
+          <t>2,26; 14,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 4,24</t>
+          <t>-3,76; 9,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 4,96</t>
+          <t>-2,34; 5,77</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 7,41</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-3,4; 5,14</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; 5,33</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-10,98; 1,75</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,15; 4,39</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 5,32</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-5,85; 1,31</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,08; 8,33</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-4,65; 4,35</t>
         </is>
       </c>
     </row>
@@ -833,32 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>-5,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4,56%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,73%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,03%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-3,94%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2,06%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2,95%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-2,57%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4,75%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-0,55%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 5,5</t>
+          <t>-2,42; 7,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 5,59</t>
+          <t>-4,47; 6,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 6,91</t>
+          <t>-13,25; -0,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 8,93</t>
+          <t>2,69; 18,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 4,9</t>
+          <t>-4,07; 10,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 5,75</t>
+          <t>-2,62; 6,74</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 8,7</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-3,86; 6,08</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-8,62; 6,18</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-11,86; 1,83</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-1,27; 5,1</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-0,87; 6,11</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-6,54; 1,5</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-0,08; 10,06</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-5,18; 4,98</t>
         </is>
       </c>
     </row>
@@ -913,32 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>3,79</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-3,19</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-4,17</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -951,32 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 5,09</t>
+          <t>-7,37; 6,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 5,34</t>
+          <t>-9,93; 6,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 9,54</t>
+          <t>-14,15; 3,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 6,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 5,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 3,91</t>
+          <t>-1,85; 11,2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,49; 8,68</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-13,28; 4,62</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 6,36</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-5,89; 4,98</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-11,01; 2,06</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -989,32 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,56%</t>
+          <t>-0,45%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,17%</t>
+          <t>-1,23%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>-5,62%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-1,66%</t>
+          <t>4,27%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-3,59%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-0,54%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-4,63%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 5,78</t>
+          <t>-7,77; 7,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 5,95</t>
+          <t>-10,48; 7,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 11,45</t>
+          <t>-15,23; 4,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 7,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 6,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 4,29</t>
+          <t>-2,01; 13,26</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-7,07; 10,46</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-14,76; 5,24</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-3,34; 7,39</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-6,35; 5,75</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-12,04; 2,36</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4,03</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3,07</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-2,99</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>4,02</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-1,03</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,83</t>
+          <t>-2,12; 3,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 4,33</t>
+          <t>-0,89; 4,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 4,98</t>
+          <t>-9,18; -2,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 6,6</t>
+          <t>1,71; 8,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,22</t>
+          <t>-5,5; 1,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,84</t>
+          <t>0,28; 5,07</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1,88; 6,46</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-3,14; 2,33</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 5,87</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 3,36</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 3,27</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1,15; 4,78</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-5,06; -0,81</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1,58; 6,26</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 0,85</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2,35%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-6,75%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6,33%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-2,6%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4,65%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-0,21%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3,4%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
           <t>0,25%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>2,1%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>2,9%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>4,49%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>1,59%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>3,31%</t>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3,52%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-3,43%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>4,77%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-1,16%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1937,84 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 3,22</t>
+          <t>-2,37; 3,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 4,97</t>
+          <t>-1,01; 5,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,02; 5,82</t>
+          <t>-10,42; -2,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,93; 7,79</t>
+          <t>2,01; 10,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 3,75</t>
+          <t>-6,04; 1,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,33; 5,64</t>
+          <t>0,32; 5,96</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2,13; 7,62</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-3,59; 2,72</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 6,96</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-2,8; 3,85</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-0,14; 3,79</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 5,53</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-5,79; -0,96</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>1,85; 7,55</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-3,54; 0,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1216,12 +2022,12 @@
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
